--- a/Zillow_API/codes_and_cities.xlsx
+++ b/Zillow_API/codes_and_cities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhad\Desktop\Summer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2EBB8AD-B622-4B67-9438-42A2A42A8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2445D86-75CA-4604-90AC-A60905631733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{590C25F6-1A12-4054-BBB3-50B9EFE05F34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>City</t>
   </si>
@@ -66,6 +66,75 @@
   </si>
   <si>
     <t>Antelope</t>
+  </si>
+  <si>
+    <t>Arden-Arcade</t>
+  </si>
+  <si>
+    <t>Carmichael</t>
+  </si>
+  <si>
+    <t>Elk-Grove</t>
+  </si>
+  <si>
+    <t>El-Dorado-Hills</t>
+  </si>
+  <si>
+    <t>Loomis</t>
+  </si>
+  <si>
+    <t>Penryn</t>
+  </si>
+  <si>
+    <t>Wheatland</t>
+  </si>
+  <si>
+    <t>Yuba-City</t>
+  </si>
+  <si>
+    <t>Rancho-Cordova</t>
+  </si>
+  <si>
+    <t>Fair-Oaks</t>
+  </si>
+  <si>
+    <t>Folsom</t>
+  </si>
+  <si>
+    <t>Granite-Bay</t>
+  </si>
+  <si>
+    <t>North-Auburn</t>
+  </si>
+  <si>
+    <t>Foothill-Farms</t>
+  </si>
+  <si>
+    <t>Olivehurst</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Orangevale</t>
+  </si>
+  <si>
+    <t>La-Riviera</t>
+  </si>
+  <si>
+    <t>Grass-Valley</t>
+  </si>
+  <si>
+    <t>Placerville</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Foresthill</t>
+  </si>
+  <si>
+    <t>West-Sacramento</t>
   </si>
 </sst>
 </file>
@@ -417,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C6B681-8562-4159-95A0-A810EDA7CBE0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,6 +569,190 @@
         <v>31458</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>21251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>22489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>34220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>20837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>15387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>22597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>23110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>24601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>22693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>24738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>24782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>23762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>14915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>20957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>20818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
